--- a/tbl/Tab_New14C.xlsx
+++ b/tbl/Tab_New14C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Desktop/Pikunda-Munda ^0 Batalimo-Maluba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Desktop/Pikunda-Munda ^0 Batalimo-Maluba/PikundaMunda_BatalimoMaluba_AAR/tbl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{039D63AD-4418-4B88-B8AC-1E506E74F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76C6AB8E-E86B-43F4-88C3-0D32F92527D6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{039D63AD-4418-4B88-B8AC-1E506E74F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2FCFBF-A0E8-45F5-B1FF-65EBD617C636}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{212E9E3B-7903-4CE6-B038-194D9A681BCD}"/>
+    <workbookView xWindow="5910" yWindow="2805" windowWidth="16050" windowHeight="13095" xr2:uid="{212E9E3B-7903-4CE6-B038-194D9A681BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,17 +165,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -482,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7EE688-39B5-44BF-9E36-543843547DFA}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +527,7 @@
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -513,197 +535,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1850</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>44.9</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>3.1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>-26.6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>7.7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>192</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>55.7</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>6.4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>-26.2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>328</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>54.4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>4.5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>-26.1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>14.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>841</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>16.5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>-25.7</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>6.8</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>19.600000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tbl/Tab_New14C.xlsx
+++ b/tbl/Tab_New14C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Desktop/Pikunda-Munda ^0 Batalimo-Maluba/PikundaMunda_BatalimoMaluba_AAR/tbl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Projekte/_Eingereicht/Pikunda-Munda ^0 Batalimo-Maluba/PikundaMunda_BatalimoMaluba_AAR/tbl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{039D63AD-4418-4B88-B8AC-1E506E74F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2FCFBF-A0E8-45F5-B1FF-65EBD617C636}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{039D63AD-4418-4B88-B8AC-1E506E74F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB0A920-BD29-45A0-8692-321362C78D1D}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2805" windowWidth="16050" windowHeight="13095" xr2:uid="{212E9E3B-7903-4CE6-B038-194D9A681BCD}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="17520" xr2:uid="{212E9E3B-7903-4CE6-B038-194D9A681BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>%C</t>
   </si>
@@ -110,19 +110,16 @@
     <t>1167-1262 CE (95.4%)</t>
   </si>
   <si>
-    <t>MUN 87/1-0-2 (-4:71)</t>
-  </si>
-  <si>
-    <t>MUN 87/1-0-2 (-1:1)</t>
-  </si>
-  <si>
-    <t>PIK 87/1 (-9:3)</t>
-  </si>
-  <si>
-    <t>NGO 87/102 (:29)</t>
-  </si>
-  <si>
-    <t>Feature (Object ID)</t>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>MUN 87/1-0-2</t>
+  </si>
+  <si>
+    <t>PIK 87/1</t>
+  </si>
+  <si>
+    <t>NGO 87/102</t>
   </si>
 </sst>
 </file>
@@ -515,7 +512,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +521,7 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
@@ -548,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
